--- a/biology/Microbiologie/Bifidobacteriales/Bifidobacteriales.xlsx
+++ b/biology/Microbiologie/Bifidobacteriales/Bifidobacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bifidobacteriales forment un ordre de bactéries Gram positives du phylum des Actinomycetota. Ce sont des bactéries commensales du tractus gastro-instestinal, du vagin et de la cavité orale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bifidobacteriales sont des bactéries gram positives, anaérobies, non mobiles et ne formant pas de spores[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bifidobacteriales sont des bactéries gram positives, anaérobies, non mobiles et ne formant pas de spores.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de cet ordre sont connues pour être des bactéries dont les populations sont communément présentes dans le tractus gastro-intestinal, le vagin et aussi de la cavité orale[1]. Dans le tractus gastro-intestinal, ces bactéries résident surtout dans le colon.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de cet ordre sont connues pour être des bactéries dont les populations sont communément présentes dans le tractus gastro-intestinal, le vagin et aussi de la cavité orale. Dans le tractus gastro-intestinal, ces bactéries résident surtout dans le colon.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (28 octobre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (28 octobre 2023) :
 Bifidobacteriaceae Stackebrandt et al. 1997</t>
         </is>
       </c>
@@ -604,12 +622,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bifidobacteriales Stackebrandt et al. 1997[2].
-Le genre type est : Bifidobacterium Orla-Jensen 1924[2].
-Étymologie
-L'étymologie de cet ordre est la suivante : N.L. neut. n. Bifidobacterium, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Bifidobacteriales, l'ordre des Bifidobacterium[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bifidobacteriales Stackebrandt et al. 1997.
+Le genre type est : Bifidobacterium Orla-Jensen 1924.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est la suivante : N.L. neut. n. Bifidobacterium, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Bifidobacteriales, l'ordre des Bifidobacterium,.
 </t>
         </is>
       </c>
